--- a/Dataset/class.xlsx
+++ b/Dataset/class.xlsx
@@ -77,7 +77,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -171,13 +171,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -529,24 +529,26 @@
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3">
+        <v>500000</v>
+      </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>44841</v>
       </c>
       <c r="G2" s="3">
         <v>2000000</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>2</v>
       </c>
-      <c r="I2" s="5">
-        <v>1</v>
-      </c>
-      <c r="J2" s="6">
-        <v>1</v>
-      </c>
-      <c r="K2" s="5">
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
         <v>13</v>
       </c>
     </row>
@@ -554,7 +556,9 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <v>200000</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
@@ -562,22 +566,22 @@
         <v>300000</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="3">
         <v>3000000</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>3</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>2</v>
       </c>
-      <c r="J3" s="6">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5">
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
         <v>14</v>
       </c>
     </row>
@@ -591,24 +595,26 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3">
+        <v>400000</v>
+      </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="4">
-        <v>44690</v>
+      <c r="F4" s="6">
+        <v>44809</v>
       </c>
       <c r="G4" s="3">
         <v>2000000</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>4</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>3</v>
       </c>
-      <c r="J4" s="6">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5">
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
         <v>15</v>
       </c>
     </row>
@@ -616,7 +622,9 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3">
+        <v>100000</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
@@ -624,22 +632,22 @@
         <v>100000</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="3">
         <v>1000000</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>5</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>4</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>2</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>16</v>
       </c>
     </row>
@@ -647,7 +655,9 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3">
+        <v>300000</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
@@ -655,22 +665,22 @@
         <v>400000</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="3">
         <v>4000000</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>6</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>5</v>
       </c>
-      <c r="J6" s="6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5">
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
         <v>17</v>
       </c>
     </row>
@@ -678,7 +688,9 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3">
+        <v>300000</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
@@ -692,16 +704,16 @@
       <c r="G7" s="3">
         <v>3000000</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>7</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>6</v>
       </c>
-      <c r="J7" s="6">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
         <v>18</v>
       </c>
     </row>
@@ -715,24 +727,26 @@
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>400000</v>
+      </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="4">
+      <c r="F8" s="6">
         <v>45451</v>
       </c>
       <c r="G8" s="3">
         <v>3000000</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>8</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>7</v>
       </c>
-      <c r="J8" s="6">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5">
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
         <v>19</v>
       </c>
     </row>
@@ -740,28 +754,30 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3">
+        <v>300000</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="3">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="H9" s="5">
+        <v>3000000</v>
+      </c>
+      <c r="H9" s="4">
         <v>5</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>4</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>2</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>16</v>
       </c>
     </row>
@@ -775,22 +791,24 @@
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>200000</v>
+      </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="3">
         <v>2000000</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>8</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>7</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>2</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>19</v>
       </c>
     </row>
@@ -804,22 +822,24 @@
       <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>500000</v>
+      </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="3">
         <v>4000000</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>4</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>3</v>
       </c>
-      <c r="J11" s="6">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
         <v>15</v>
       </c>
     </row>
